--- a/hybrid_searchTesting/timings_40_question_DBSF.xlsx
+++ b/hybrid_searchTesting/timings_40_question_DBSF.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Krisztina_PC\flask-chatbot\hybrid_searchTesting\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A733661-E3B3-4599-9E9C-54BC7EBF0C24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F48389C-FCDF-4C72-B98A-072E46D93361}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -217,7 +217,6 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -564,9 +563,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H41"/>
   <sheetViews>
-    <sheetView topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
@@ -601,22 +598,22 @@
         <v>8</v>
       </c>
       <c r="B2">
-        <v>1.744</v>
+        <v>0.38100000000000001</v>
       </c>
       <c r="C2">
-        <v>1.6739999999999999</v>
+        <v>2.9249999999999998</v>
       </c>
       <c r="D2">
-        <v>0.64100000000000001</v>
+        <v>0.59</v>
       </c>
       <c r="E2">
-        <v>1.5589999999999999</v>
+        <v>1.4990000000000001</v>
       </c>
       <c r="F2">
-        <v>5.6180000000000003</v>
+        <v>5.3940000000000001</v>
       </c>
       <c r="G2">
-        <v>0.91900000000000004</v>
+        <v>0.89</v>
       </c>
       <c r="H2">
         <v>39</v>
@@ -627,25 +624,25 @@
         <v>9</v>
       </c>
       <c r="B3">
-        <v>0.34899999999999998</v>
+        <v>0.41299999999999998</v>
       </c>
       <c r="C3">
-        <v>0.374</v>
+        <v>2.4350000000000001</v>
       </c>
       <c r="D3">
-        <v>0.57199999999999995</v>
+        <v>0.59699999999999998</v>
       </c>
       <c r="E3">
-        <v>1.51</v>
+        <v>1.306</v>
       </c>
       <c r="F3">
-        <v>2.806</v>
+        <v>4.7519999999999998</v>
       </c>
       <c r="G3">
         <v>0.90500000000000003</v>
       </c>
       <c r="H3">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
@@ -653,19 +650,19 @@
         <v>10</v>
       </c>
       <c r="B4">
-        <v>0.36899999999999999</v>
+        <v>0.32200000000000001</v>
       </c>
       <c r="C4">
-        <v>0.377</v>
+        <v>2.363</v>
       </c>
       <c r="D4">
-        <v>0.56599999999999995</v>
+        <v>0.61899999999999999</v>
       </c>
       <c r="E4">
-        <v>1.4</v>
+        <v>1.2629999999999999</v>
       </c>
       <c r="F4">
-        <v>2.7109999999999999</v>
+        <v>4.5670000000000002</v>
       </c>
       <c r="G4">
         <v>0.70299999999999996</v>
@@ -679,22 +676,22 @@
         <v>11</v>
       </c>
       <c r="B5">
-        <v>0.44500000000000001</v>
+        <v>0.55800000000000005</v>
       </c>
       <c r="C5">
-        <v>0.54700000000000004</v>
+        <v>2.23</v>
       </c>
       <c r="D5">
-        <v>0.56100000000000005</v>
+        <v>0.56999999999999995</v>
       </c>
       <c r="E5">
-        <v>1.6259999999999999</v>
+        <v>1.5860000000000001</v>
       </c>
       <c r="F5">
-        <v>3.18</v>
+        <v>4.9450000000000003</v>
       </c>
       <c r="G5">
-        <v>0.86499999999999999</v>
+        <v>0.86299999999999999</v>
       </c>
       <c r="H5">
         <v>33</v>
@@ -705,19 +702,19 @@
         <v>12</v>
       </c>
       <c r="B6">
-        <v>0.43</v>
+        <v>0.32500000000000001</v>
       </c>
       <c r="C6">
-        <v>0.42399999999999999</v>
+        <v>2.2829999999999999</v>
       </c>
       <c r="D6">
-        <v>0.56399999999999995</v>
+        <v>0.57099999999999995</v>
       </c>
       <c r="E6">
-        <v>1.252</v>
+        <v>1.319</v>
       </c>
       <c r="F6">
-        <v>2.67</v>
+        <v>4.4980000000000002</v>
       </c>
       <c r="G6">
         <v>1</v>
@@ -731,19 +728,19 @@
         <v>13</v>
       </c>
       <c r="B7">
-        <v>0.35499999999999998</v>
+        <v>0.38400000000000001</v>
       </c>
       <c r="C7">
-        <v>0.39</v>
+        <v>2.2080000000000002</v>
       </c>
       <c r="D7">
-        <v>0.68600000000000005</v>
+        <v>0.61599999999999999</v>
       </c>
       <c r="E7">
-        <v>1.881</v>
+        <v>3.677</v>
       </c>
       <c r="F7">
-        <v>3.3119999999999998</v>
+        <v>6.8849999999999998</v>
       </c>
       <c r="G7">
         <v>0.72499999999999998</v>
@@ -757,22 +754,22 @@
         <v>14</v>
       </c>
       <c r="B8">
-        <v>0.42299999999999999</v>
+        <v>0.29299999999999998</v>
       </c>
       <c r="C8">
-        <v>0.46</v>
+        <v>2.3679999999999999</v>
       </c>
       <c r="D8">
-        <v>0.59199999999999997</v>
+        <v>0.59599999999999997</v>
       </c>
       <c r="E8">
-        <v>1.53</v>
+        <v>1.4690000000000001</v>
       </c>
       <c r="F8">
-        <v>3.0049999999999999</v>
+        <v>4.726</v>
       </c>
       <c r="G8">
-        <v>0.79700000000000004</v>
+        <v>0.74199999999999999</v>
       </c>
       <c r="H8">
         <v>36</v>
@@ -783,22 +780,22 @@
         <v>15</v>
       </c>
       <c r="B9">
-        <v>0.33400000000000002</v>
+        <v>0.311</v>
       </c>
       <c r="C9">
-        <v>0.43</v>
+        <v>3.2229999999999999</v>
       </c>
       <c r="D9">
-        <v>0.69</v>
+        <v>0.56100000000000005</v>
       </c>
       <c r="E9">
-        <v>1.45</v>
+        <v>1.3919999999999999</v>
       </c>
       <c r="F9">
-        <v>2.903</v>
+        <v>5.4859999999999998</v>
       </c>
       <c r="G9">
-        <v>0.85399999999999998</v>
+        <v>0.78900000000000003</v>
       </c>
       <c r="H9">
         <v>31</v>
@@ -809,19 +806,19 @@
         <v>16</v>
       </c>
       <c r="B10">
-        <v>0.40600000000000003</v>
+        <v>0.30299999999999999</v>
       </c>
       <c r="C10">
-        <v>0.53200000000000003</v>
+        <v>2.3180000000000001</v>
       </c>
       <c r="D10">
-        <v>0.57199999999999995</v>
+        <v>0.59099999999999997</v>
       </c>
       <c r="E10">
-        <v>1.623</v>
+        <v>1.5609999999999999</v>
       </c>
       <c r="F10">
-        <v>3.1339999999999999</v>
+        <v>4.7729999999999997</v>
       </c>
       <c r="G10">
         <v>1</v>
@@ -835,19 +832,19 @@
         <v>17</v>
       </c>
       <c r="B11">
-        <v>0.29499999999999998</v>
+        <v>0.58799999999999997</v>
       </c>
       <c r="C11">
-        <v>0.47299999999999998</v>
+        <v>2.2519999999999998</v>
       </c>
       <c r="D11">
-        <v>0.63800000000000001</v>
+        <v>0.64300000000000002</v>
       </c>
       <c r="E11">
-        <v>1.4019999999999999</v>
+        <v>1.242</v>
       </c>
       <c r="F11">
-        <v>2.8079999999999998</v>
+        <v>4.7249999999999996</v>
       </c>
       <c r="G11">
         <v>0.87</v>
@@ -861,19 +858,19 @@
         <v>18</v>
       </c>
       <c r="B12">
-        <v>0.35399999999999998</v>
+        <v>1</v>
       </c>
       <c r="C12">
-        <v>0.44900000000000001</v>
+        <v>2.3279999999999998</v>
       </c>
       <c r="D12">
-        <v>0.63200000000000001</v>
+        <v>0.53900000000000003</v>
       </c>
       <c r="E12">
-        <v>1.627</v>
+        <v>1.587</v>
       </c>
       <c r="F12">
-        <v>3.0619999999999998</v>
+        <v>5.4539999999999997</v>
       </c>
       <c r="G12">
         <v>0.86499999999999999</v>
@@ -887,22 +884,22 @@
         <v>19</v>
       </c>
       <c r="B13">
-        <v>0.68300000000000005</v>
+        <v>0.29499999999999998</v>
       </c>
       <c r="C13">
-        <v>0.56000000000000005</v>
+        <v>2.5139999999999998</v>
       </c>
       <c r="D13">
-        <v>0.67600000000000005</v>
+        <v>0.58899999999999997</v>
       </c>
       <c r="E13">
-        <v>4.1239999999999997</v>
+        <v>1.5149999999999999</v>
       </c>
       <c r="F13">
-        <v>6.0430000000000001</v>
+        <v>4.9139999999999997</v>
       </c>
       <c r="G13">
-        <v>0.79900000000000004</v>
+        <v>0.78800000000000003</v>
       </c>
       <c r="H13">
         <v>34</v>
@@ -913,25 +910,25 @@
         <v>20</v>
       </c>
       <c r="B14">
-        <v>0.33800000000000002</v>
+        <v>0.35099999999999998</v>
       </c>
       <c r="C14">
-        <v>0.502</v>
+        <v>2.7450000000000001</v>
       </c>
       <c r="D14">
-        <v>0.60099999999999998</v>
+        <v>0.58799999999999997</v>
       </c>
       <c r="E14">
-        <v>1.732</v>
+        <v>1.425</v>
       </c>
       <c r="F14">
-        <v>3.1720000000000002</v>
+        <v>5.109</v>
       </c>
       <c r="G14">
-        <v>0.97899999999999998</v>
+        <v>1</v>
       </c>
       <c r="H14">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
@@ -939,22 +936,22 @@
         <v>21</v>
       </c>
       <c r="B15">
-        <v>0.32200000000000001</v>
+        <v>0.41199999999999998</v>
       </c>
       <c r="C15">
-        <v>0.49199999999999999</v>
+        <v>2.9809999999999999</v>
       </c>
       <c r="D15">
-        <v>0.69399999999999995</v>
+        <v>0.57499999999999996</v>
       </c>
       <c r="E15">
-        <v>1.7490000000000001</v>
+        <v>1.798</v>
       </c>
       <c r="F15">
-        <v>3.258</v>
+        <v>5.7670000000000003</v>
       </c>
       <c r="G15">
-        <v>0.63500000000000001</v>
+        <v>0.68799999999999994</v>
       </c>
       <c r="H15">
         <v>28</v>
@@ -965,19 +962,19 @@
         <v>22</v>
       </c>
       <c r="B16">
-        <v>0.29199999999999998</v>
+        <v>0.33300000000000002</v>
       </c>
       <c r="C16">
-        <v>0.40500000000000003</v>
+        <v>2.577</v>
       </c>
       <c r="D16">
-        <v>0.58899999999999997</v>
+        <v>0.58399999999999996</v>
       </c>
       <c r="E16">
-        <v>1.974</v>
+        <v>1.704</v>
       </c>
       <c r="F16">
-        <v>3.2610000000000001</v>
+        <v>5.1989999999999998</v>
       </c>
       <c r="G16">
         <v>1</v>
@@ -991,22 +988,22 @@
         <v>23</v>
       </c>
       <c r="B17">
-        <v>0.63100000000000001</v>
+        <v>0.309</v>
       </c>
       <c r="C17">
-        <v>0.47399999999999998</v>
+        <v>2.5960000000000001</v>
       </c>
       <c r="D17">
-        <v>0.63200000000000001</v>
+        <v>0.58799999999999997</v>
       </c>
       <c r="E17">
-        <v>1.143</v>
+        <v>1.2789999999999999</v>
       </c>
       <c r="F17">
-        <v>2.88</v>
+        <v>4.7720000000000002</v>
       </c>
       <c r="G17">
-        <v>0.80200000000000005</v>
+        <v>0.93</v>
       </c>
       <c r="H17">
         <v>27</v>
@@ -1017,22 +1014,22 @@
         <v>24</v>
       </c>
       <c r="B18">
-        <v>0.60599999999999998</v>
+        <v>0.30399999999999999</v>
       </c>
       <c r="C18">
-        <v>0.56999999999999995</v>
+        <v>2.2770000000000001</v>
       </c>
       <c r="D18">
-        <v>0.61799999999999999</v>
+        <v>0.57299999999999995</v>
       </c>
       <c r="E18">
-        <v>1.804</v>
+        <v>1.877</v>
       </c>
       <c r="F18">
-        <v>3.5979999999999999</v>
+        <v>5.0309999999999997</v>
       </c>
       <c r="G18">
-        <v>0.74299999999999999</v>
+        <v>0.74099999999999999</v>
       </c>
       <c r="H18">
         <v>28</v>
@@ -1043,25 +1040,25 @@
         <v>25</v>
       </c>
       <c r="B19">
-        <v>0.39</v>
+        <v>0.32100000000000001</v>
       </c>
       <c r="C19">
-        <v>0.46200000000000002</v>
+        <v>2.2959999999999998</v>
       </c>
       <c r="D19">
-        <v>0.59599999999999997</v>
+        <v>0.622</v>
       </c>
       <c r="E19">
-        <v>1.772</v>
+        <v>1.552</v>
       </c>
       <c r="F19">
-        <v>3.222</v>
+        <v>4.7910000000000004</v>
       </c>
       <c r="G19">
-        <v>0.69799999999999995</v>
+        <v>0.70199999999999996</v>
       </c>
       <c r="H19">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
@@ -1069,19 +1066,19 @@
         <v>26</v>
       </c>
       <c r="B20">
-        <v>0.33700000000000002</v>
+        <v>0.41899999999999998</v>
       </c>
       <c r="C20">
-        <v>0.42299999999999999</v>
+        <v>2.516</v>
       </c>
       <c r="D20">
-        <v>0.61599999999999999</v>
+        <v>0.623</v>
       </c>
       <c r="E20">
-        <v>1.256</v>
+        <v>1.2470000000000001</v>
       </c>
       <c r="F20">
-        <v>2.6320000000000001</v>
+        <v>4.8040000000000003</v>
       </c>
       <c r="G20">
         <v>0.7</v>
@@ -1095,19 +1092,19 @@
         <v>27</v>
       </c>
       <c r="B21">
-        <v>0.34599999999999997</v>
+        <v>0.28299999999999997</v>
       </c>
       <c r="C21">
-        <v>0.44700000000000001</v>
+        <v>2.42</v>
       </c>
       <c r="D21">
-        <v>0.55100000000000005</v>
+        <v>0.60599999999999998</v>
       </c>
       <c r="E21">
-        <v>1.329</v>
+        <v>1.2290000000000001</v>
       </c>
       <c r="F21">
-        <v>2.673</v>
+        <v>4.5380000000000003</v>
       </c>
       <c r="G21">
         <v>0.86399999999999999</v>
@@ -1121,25 +1118,25 @@
         <v>28</v>
       </c>
       <c r="B22">
-        <v>0.49299999999999999</v>
+        <v>0.34499999999999997</v>
       </c>
       <c r="C22">
-        <v>0.47599999999999998</v>
+        <v>3.1949999999999998</v>
       </c>
       <c r="D22">
-        <v>0.60599999999999998</v>
+        <v>0.52900000000000003</v>
       </c>
       <c r="E22">
-        <v>1.2410000000000001</v>
+        <v>1.222</v>
       </c>
       <c r="F22">
-        <v>2.8180000000000001</v>
+        <v>5.2910000000000004</v>
       </c>
       <c r="G22">
-        <v>0.76300000000000001</v>
+        <v>0.94099999999999995</v>
       </c>
       <c r="H22">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
@@ -1147,19 +1144,19 @@
         <v>29</v>
       </c>
       <c r="B23">
-        <v>0.32800000000000001</v>
+        <v>0.36399999999999999</v>
       </c>
       <c r="C23">
-        <v>0.56999999999999995</v>
+        <v>2.177</v>
       </c>
       <c r="D23">
-        <v>0.60599999999999998</v>
+        <v>0.57699999999999996</v>
       </c>
       <c r="E23">
-        <v>1.671</v>
+        <v>1.6479999999999999</v>
       </c>
       <c r="F23">
-        <v>3.1760000000000002</v>
+        <v>4.7649999999999997</v>
       </c>
       <c r="G23">
         <v>0.68600000000000005</v>
@@ -1173,22 +1170,22 @@
         <v>30</v>
       </c>
       <c r="B24">
-        <v>0.33900000000000002</v>
+        <v>0.33100000000000002</v>
       </c>
       <c r="C24">
-        <v>0.45300000000000001</v>
+        <v>2.367</v>
       </c>
       <c r="D24">
-        <v>0.85299999999999998</v>
+        <v>0.63800000000000001</v>
       </c>
       <c r="E24">
-        <v>2.6869999999999998</v>
+        <v>2.508</v>
       </c>
       <c r="F24">
-        <v>4.3330000000000002</v>
+        <v>5.8449999999999998</v>
       </c>
       <c r="G24">
-        <v>0.75700000000000001</v>
+        <v>0.75800000000000001</v>
       </c>
       <c r="H24">
         <v>28</v>
@@ -1199,25 +1196,25 @@
         <v>31</v>
       </c>
       <c r="B25">
-        <v>0.31</v>
+        <v>0.308</v>
       </c>
       <c r="C25">
-        <v>0.438</v>
+        <v>3.6320000000000001</v>
       </c>
       <c r="D25">
-        <v>0.56699999999999995</v>
+        <v>0.62</v>
       </c>
       <c r="E25">
-        <v>1.857</v>
+        <v>1.7589999999999999</v>
       </c>
       <c r="F25">
-        <v>3.173</v>
+        <v>6.319</v>
       </c>
       <c r="G25">
-        <v>0.88500000000000001</v>
+        <v>0.9</v>
       </c>
       <c r="H25">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
@@ -1225,22 +1222,22 @@
         <v>32</v>
       </c>
       <c r="B26">
-        <v>0.32200000000000001</v>
+        <v>0.40500000000000003</v>
       </c>
       <c r="C26">
-        <v>0.35499999999999998</v>
+        <v>2.4470000000000001</v>
       </c>
       <c r="D26">
-        <v>0.56299999999999994</v>
+        <v>0.57799999999999996</v>
       </c>
       <c r="E26">
-        <v>1.86</v>
+        <v>1.659</v>
       </c>
       <c r="F26">
-        <v>3.101</v>
+        <v>5.09</v>
       </c>
       <c r="G26">
-        <v>0.63100000000000001</v>
+        <v>0.63800000000000001</v>
       </c>
       <c r="H26">
         <v>31</v>
@@ -1251,22 +1248,22 @@
         <v>33</v>
       </c>
       <c r="B27">
-        <v>0.32100000000000001</v>
+        <v>0.29899999999999999</v>
       </c>
       <c r="C27">
-        <v>0.39500000000000002</v>
+        <v>2.2440000000000002</v>
       </c>
       <c r="D27">
-        <v>0.52600000000000002</v>
+        <v>0.51500000000000001</v>
       </c>
       <c r="E27">
-        <v>1.206</v>
+        <v>1.1990000000000001</v>
       </c>
       <c r="F27">
-        <v>2.448</v>
+        <v>4.2569999999999997</v>
       </c>
       <c r="G27">
-        <v>0.72899999999999998</v>
+        <v>0.73499999999999999</v>
       </c>
       <c r="H27">
         <v>8</v>
@@ -1277,19 +1274,19 @@
         <v>34</v>
       </c>
       <c r="B28">
-        <v>0.65600000000000003</v>
+        <v>0.45800000000000002</v>
       </c>
       <c r="C28">
-        <v>0.40200000000000002</v>
+        <v>2.4129999999999998</v>
       </c>
       <c r="D28">
-        <v>0.87</v>
+        <v>0.56599999999999995</v>
       </c>
       <c r="E28">
-        <v>1.8149999999999999</v>
+        <v>1.798</v>
       </c>
       <c r="F28">
-        <v>3.742</v>
+        <v>5.2350000000000003</v>
       </c>
       <c r="G28">
         <v>0.64900000000000002</v>
@@ -1303,22 +1300,22 @@
         <v>35</v>
       </c>
       <c r="B29">
-        <v>0.34</v>
+        <v>0.27600000000000002</v>
       </c>
       <c r="C29">
-        <v>0.54500000000000004</v>
+        <v>2.1629999999999998</v>
       </c>
       <c r="D29">
-        <v>0.52400000000000002</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="E29">
-        <v>1.2769999999999999</v>
+        <v>1.2869999999999999</v>
       </c>
       <c r="F29">
-        <v>2.6869999999999998</v>
+        <v>4.2759999999999998</v>
       </c>
       <c r="G29">
-        <v>0.85</v>
+        <v>0.98099999999999998</v>
       </c>
       <c r="H29">
         <v>9</v>
@@ -1329,19 +1326,19 @@
         <v>36</v>
       </c>
       <c r="B30">
-        <v>0.33200000000000002</v>
+        <v>0.29399999999999998</v>
       </c>
       <c r="C30">
-        <v>0.47499999999999998</v>
+        <v>2.38</v>
       </c>
       <c r="D30">
-        <v>0.55000000000000004</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="E30">
-        <v>1.2490000000000001</v>
+        <v>1.4350000000000001</v>
       </c>
       <c r="F30">
-        <v>2.6080000000000001</v>
+        <v>4.6680000000000001</v>
       </c>
       <c r="G30">
         <v>0.755</v>
@@ -1355,19 +1352,19 @@
         <v>37</v>
       </c>
       <c r="B31">
-        <v>0.32</v>
+        <v>0.36</v>
       </c>
       <c r="C31">
-        <v>0.41899999999999998</v>
+        <v>2.399</v>
       </c>
       <c r="D31">
-        <v>0.57199999999999995</v>
+        <v>0.58199999999999996</v>
       </c>
       <c r="E31">
-        <v>1.389</v>
+        <v>1.498</v>
       </c>
       <c r="F31">
-        <v>2.7</v>
+        <v>4.8380000000000001</v>
       </c>
       <c r="G31">
         <v>0.83899999999999997</v>
@@ -1381,19 +1378,19 @@
         <v>38</v>
       </c>
       <c r="B32">
-        <v>0.44600000000000001</v>
+        <v>0.35399999999999998</v>
       </c>
       <c r="C32">
-        <v>0.56499999999999995</v>
+        <v>2.266</v>
       </c>
       <c r="D32">
-        <v>0.56000000000000005</v>
+        <v>0.60599999999999998</v>
       </c>
       <c r="E32">
-        <v>1.589</v>
+        <v>1.6890000000000001</v>
       </c>
       <c r="F32">
-        <v>3.1589999999999998</v>
+        <v>4.915</v>
       </c>
       <c r="G32">
         <v>0.96</v>
@@ -1407,19 +1404,19 @@
         <v>39</v>
       </c>
       <c r="B33">
-        <v>0.33</v>
+        <v>0.314</v>
       </c>
       <c r="C33">
-        <v>0.38100000000000001</v>
+        <v>2.528</v>
       </c>
       <c r="D33">
-        <v>0.58099999999999996</v>
+        <v>0.59799999999999998</v>
       </c>
       <c r="E33">
-        <v>1.6140000000000001</v>
+        <v>1.677</v>
       </c>
       <c r="F33">
-        <v>2.9060000000000001</v>
+        <v>5.117</v>
       </c>
       <c r="G33">
         <v>0.88300000000000001</v>
@@ -1433,19 +1430,19 @@
         <v>40</v>
       </c>
       <c r="B34">
-        <v>0.54300000000000004</v>
+        <v>0.34799999999999998</v>
       </c>
       <c r="C34">
-        <v>0.46600000000000003</v>
+        <v>2.4750000000000001</v>
       </c>
       <c r="D34">
-        <v>0.60599999999999998</v>
+        <v>0.58199999999999996</v>
       </c>
       <c r="E34">
-        <v>2.3679999999999999</v>
+        <v>1.839</v>
       </c>
       <c r="F34">
-        <v>3.9820000000000002</v>
+        <v>5.2430000000000003</v>
       </c>
       <c r="G34">
         <v>0.89900000000000002</v>
@@ -1459,19 +1456,19 @@
         <v>41</v>
       </c>
       <c r="B35">
-        <v>0.316</v>
+        <v>0.34200000000000003</v>
       </c>
       <c r="C35">
-        <v>0.42799999999999999</v>
+        <v>2.2349999999999999</v>
       </c>
       <c r="D35">
-        <v>0.57899999999999996</v>
+        <v>0.58499999999999996</v>
       </c>
       <c r="E35">
-        <v>1.7070000000000001</v>
+        <v>1.6579999999999999</v>
       </c>
       <c r="F35">
-        <v>3.03</v>
+        <v>4.82</v>
       </c>
       <c r="G35">
         <v>0.65</v>
@@ -1485,22 +1482,22 @@
         <v>42</v>
       </c>
       <c r="B36">
-        <v>0.54200000000000004</v>
+        <v>0.30499999999999999</v>
       </c>
       <c r="C36">
-        <v>0.59699999999999998</v>
+        <v>2.3889999999999998</v>
       </c>
       <c r="D36">
-        <v>0.78600000000000003</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="E36">
-        <v>1.7490000000000001</v>
+        <v>1.611</v>
       </c>
       <c r="F36">
-        <v>3.6749999999999998</v>
+        <v>4.8650000000000002</v>
       </c>
       <c r="G36">
-        <v>0.90800000000000003</v>
+        <v>0.89500000000000002</v>
       </c>
       <c r="H36">
         <v>39</v>
@@ -1511,19 +1508,19 @@
         <v>43</v>
       </c>
       <c r="B37">
-        <v>0.34699999999999998</v>
+        <v>0.311</v>
       </c>
       <c r="C37">
-        <v>0.48299999999999998</v>
+        <v>2.754</v>
       </c>
       <c r="D37">
-        <v>0.56200000000000006</v>
+        <v>0.6</v>
       </c>
       <c r="E37">
-        <v>1.52</v>
+        <v>1.46</v>
       </c>
       <c r="F37">
-        <v>2.9119999999999999</v>
+        <v>5.1260000000000003</v>
       </c>
       <c r="G37">
         <v>1</v>
@@ -1537,22 +1534,22 @@
         <v>44</v>
       </c>
       <c r="B38">
-        <v>0.33500000000000002</v>
+        <v>0.27300000000000002</v>
       </c>
       <c r="C38">
-        <v>0.44</v>
+        <v>2.2770000000000001</v>
       </c>
       <c r="D38">
-        <v>0.54300000000000004</v>
+        <v>0.63100000000000001</v>
       </c>
       <c r="E38">
-        <v>5.1779999999999999</v>
+        <v>1.948</v>
       </c>
       <c r="F38">
-        <v>6.4950000000000001</v>
+        <v>5.1280000000000001</v>
       </c>
       <c r="G38">
-        <v>0.86099999999999999</v>
+        <v>0.76400000000000001</v>
       </c>
       <c r="H38">
         <v>36</v>
@@ -1563,22 +1560,22 @@
         <v>45</v>
       </c>
       <c r="B39">
-        <v>0.34599999999999997</v>
+        <v>0.28799999999999998</v>
       </c>
       <c r="C39">
-        <v>0.49</v>
+        <v>2.371</v>
       </c>
       <c r="D39">
-        <v>0.64</v>
+        <v>0.58499999999999996</v>
       </c>
       <c r="E39">
-        <v>1.2430000000000001</v>
+        <v>1.151</v>
       </c>
       <c r="F39">
-        <v>2.7189999999999999</v>
+        <v>4.3949999999999996</v>
       </c>
       <c r="G39">
-        <v>0.94899999999999995</v>
+        <v>1</v>
       </c>
       <c r="H39">
         <v>29</v>
@@ -1589,19 +1586,19 @@
         <v>46</v>
       </c>
       <c r="B40">
-        <v>0.39900000000000002</v>
+        <v>0.32</v>
       </c>
       <c r="C40">
-        <v>0.501</v>
+        <v>2.383</v>
       </c>
       <c r="D40">
-        <v>0.54600000000000004</v>
+        <v>0.54500000000000004</v>
       </c>
       <c r="E40">
-        <v>1.34</v>
+        <v>1.3240000000000001</v>
       </c>
       <c r="F40">
-        <v>2.786</v>
+        <v>4.5720000000000001</v>
       </c>
       <c r="G40">
         <v>0.90300000000000002</v>
@@ -1615,22 +1612,22 @@
         <v>47</v>
       </c>
       <c r="B41">
-        <v>1.327</v>
+        <v>0.46600000000000003</v>
       </c>
       <c r="C41">
-        <v>0.48399999999999999</v>
+        <v>2.2799999999999998</v>
       </c>
       <c r="D41">
-        <v>0.77800000000000002</v>
+        <v>0.58599999999999997</v>
       </c>
       <c r="E41">
-        <v>1.542</v>
+        <v>1.4490000000000001</v>
       </c>
       <c r="F41">
-        <v>4.1319999999999997</v>
+        <v>4.7809999999999997</v>
       </c>
       <c r="G41">
-        <v>0.98499999999999999</v>
+        <v>0.88400000000000001</v>
       </c>
       <c r="H41">
         <v>34</v>
@@ -1642,11 +1639,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26D76379-FBF8-425D-BF8B-FAB6ADDBB785}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CFBC790-AD80-4184-806F-C9732BC2EC8F}">
   <dimension ref="B5:G17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1657,7 +1654,7 @@
       </c>
       <c r="G5">
         <f>ROUND(AVERAGE(Sheet1!B2:B41),2)</f>
-        <v>0.45</v>
+        <v>0.37</v>
       </c>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.3">
@@ -1666,7 +1663,7 @@
       </c>
       <c r="G7">
         <f>ROUND(AVERAGE(Sheet1!C2:C41),2)</f>
-        <v>0.5</v>
+        <v>2.48</v>
       </c>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.3">
@@ -1675,7 +1672,7 @@
       </c>
       <c r="G9">
         <f>ROUND(AVERAGE(Sheet1!D2:D41),2)</f>
-        <v>0.62</v>
+        <v>0.59</v>
       </c>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.3">
@@ -1684,7 +1681,7 @@
       </c>
       <c r="G11">
         <f>ROUND(AVERAGE(Sheet1!E2:E41),2)</f>
-        <v>1.75</v>
+        <v>1.58</v>
       </c>
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.3">
@@ -1693,7 +1690,7 @@
       </c>
       <c r="G13">
         <f>ROUND(AVERAGE(Sheet1!F2:F41),2)</f>
-        <v>3.31</v>
+        <v>5.0199999999999996</v>
       </c>
     </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.3">
@@ -1702,7 +1699,7 @@
       </c>
       <c r="G15">
         <f>ROUND(AVERAGE(Sheet1!G2:G41),2)</f>
-        <v>0.83</v>
+        <v>0.84</v>
       </c>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.3">
@@ -1711,7 +1708,7 @@
       </c>
       <c r="G17">
         <f>ROUND(AVERAGE(Sheet1!H2:H41),2)</f>
-        <v>29.33</v>
+        <v>29.25</v>
       </c>
     </row>
   </sheetData>
